--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -11,13 +11,14 @@
     <sheet name="projectiles" sheetId="2" r:id="rId2"/>
     <sheet name="grille de jeu" sheetId="3" r:id="rId3"/>
     <sheet name="format v2" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
   <si>
     <t>Sheep</t>
   </si>
@@ -277,51 +278,18 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">class AObject </t>
-  </si>
-  <si>
     <t xml:space="preserve">class IShootIA </t>
   </si>
   <si>
-    <t>AShape</t>
-  </si>
-  <si>
-    <t>class AShape</t>
-  </si>
-  <si>
     <t>#define MAX_SHAPE_WIDTH 21</t>
   </si>
   <si>
     <t>#define MAX_SHAPE_HEIGHT 21</t>
   </si>
   <si>
-    <t>char const _fgChar[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH];</t>
-  </si>
-  <si>
-    <t>char const _fgColor[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH];</t>
-  </si>
-  <si>
-    <t>char const _bgColor[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH];</t>
-  </si>
-  <si>
     <t>void setShape(Game const &amp;g, AObject const &amp;ob) const;</t>
   </si>
   <si>
-    <t>int const _leftSize;</t>
-  </si>
-  <si>
-    <t>int const _rightSize;</t>
-  </si>
-  <si>
-    <t>int const _topSize;</t>
-  </si>
-  <si>
-    <t>int const _bottomSize;</t>
-  </si>
-  <si>
-    <t>void cleanShape(Game const &amp;g, AObject const &amp;ob) const;</t>
-  </si>
-  <si>
     <t xml:space="preserve">class AShootPatternPig : public IShootIA </t>
   </si>
   <si>
@@ -331,9 +299,6 @@
     <t>class Pig : public AObject, public AMovPatternDefault, public AShootPatternDefault</t>
   </si>
   <si>
-    <t>AShape const &amp;</t>
-  </si>
-  <si>
     <t>_posX;</t>
   </si>
   <si>
@@ -373,9 +338,6 @@
     <t>std::string const &amp;</t>
   </si>
   <si>
-    <t>virtual AShape const &amp;</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -385,9 +347,6 @@
     <t>_mobName;</t>
   </si>
   <si>
-    <t>static AShape const</t>
-  </si>
-  <si>
     <t>_shape;</t>
   </si>
   <si>
@@ -482,6 +441,65 @@
   </si>
   <si>
     <t>_shootChancesFactor</t>
+  </si>
+  <si>
+    <t>char const</t>
+  </si>
+  <si>
+    <t>_leftSize;</t>
+  </si>
+  <si>
+    <t>_rightSize;</t>
+  </si>
+  <si>
+    <t>_topSize;</t>
+  </si>
+  <si>
+    <t>_bottomSize;</t>
+  </si>
+  <si>
+    <t>virtual Shape const &amp;</t>
+  </si>
+  <si>
+    <t>Shape const &amp;</t>
+  </si>
+  <si>
+    <t>static Shape const</t>
+  </si>
+  <si>
+    <t>class Shape</t>
+  </si>
+  <si>
+    <t>_fgChars[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH];</t>
+  </si>
+  <si>
+    <t>_fgColors[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH];</t>
+  </si>
+  <si>
+    <t>_bgColors[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH];</t>
+  </si>
+  <si>
+    <t>Shape();</t>
+  </si>
+  <si>
+    <t>// void cleanShape(Game const &amp;g, AObject const &amp;ob) const;</t>
+  </si>
+  <si>
+    <t>virtual ~Shape();</t>
+  </si>
+  <si>
+    <t>Shape const &amp;operator=(Shape const &amp;rhs);</t>
+  </si>
+  <si>
+    <t>Shape(Shape const &amp;cpy);</t>
+  </si>
+  <si>
+    <t>Shape(char const fgChars[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH],
+char const fgColors[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH],
+char const bgColors[MAX_SHAPE_HEIGHT][MAX_SHAPE_WIDTH]);</t>
+  </si>
+  <si>
+    <t>class AObject : public Shape</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -612,9 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,6 +637,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1118,7 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
@@ -1108,7 +1129,7 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F51" t="s">
@@ -1119,7 +1140,7 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
@@ -1127,7 +1148,7 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
@@ -1135,7 +1156,7 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="C54" s="10"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
@@ -1153,7 +1174,7 @@
       </c>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E76" t="s">
@@ -1161,7 +1182,7 @@
       </c>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E77" t="s">
@@ -1185,7 +1206,7 @@
       </c>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1198,7 +1219,7 @@
       </c>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F99" t="s">
@@ -1206,7 +1227,7 @@
       </c>
     </row>
     <row r="105" spans="3:8">
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F105" t="s">
@@ -1214,8 +1235,8 @@
       </c>
     </row>
     <row r="106" spans="3:8">
-      <c r="C106" s="10" t="s">
-        <v>102</v>
+      <c r="C106" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -1225,7 +1246,7 @@
       </c>
     </row>
     <row r="107" spans="3:8">
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F107" t="s">
@@ -1239,7 +1260,7 @@
       </c>
     </row>
     <row r="108" spans="3:8">
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F108" t="s">
@@ -1253,112 +1274,112 @@
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="2:3">
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="2:3">
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="2:3">
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="2:3">
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="10"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="10"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="10"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="10"/>
-      <c r="C136" s="10" t="s">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="2:3">
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="2:3">
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="2:3">
-      <c r="C140" s="10"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="142" spans="2:3">
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="C143" s="10"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="C144" s="10"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="10"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="10"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="10"/>
+      <c r="C148" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1421,10 +1442,10 @@
     <row r="6" spans="9:39">
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1452,122 +1473,122 @@
     <row r="7" spans="9:39">
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="9">
+      <c r="K7" s="15">
         <v>0</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
         <v>2</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9">
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
         <v>4</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15">
         <v>6</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9">
+      <c r="R7" s="15"/>
+      <c r="S7" s="15">
         <v>8</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
         <v>10</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9">
+      <c r="V7" s="15"/>
+      <c r="W7" s="15">
         <v>12</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9">
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15">
         <v>14</v>
       </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9">
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15">
         <v>16</v>
       </c>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9">
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15">
         <v>18</v>
       </c>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9">
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15">
         <v>20</v>
       </c>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9">
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15">
         <v>22</v>
       </c>
-      <c r="AH7" s="9"/>
+      <c r="AH7" s="15"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="3"/>
     </row>
     <row r="8" spans="9:39">
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="15">
         <v>0</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="9">
+      <c r="L8" s="15">
         <v>1</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15">
         <v>3</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
         <v>5</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15">
         <v>7</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15">
         <v>9</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15">
         <v>11</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9">
+      <c r="W8" s="15"/>
+      <c r="X8" s="15">
         <v>13</v>
       </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9">
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15">
         <v>15</v>
       </c>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9">
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15">
         <v>17</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9">
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15">
         <v>19</v>
       </c>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9">
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15">
         <v>21</v>
       </c>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9">
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15">
         <v>23</v>
       </c>
-      <c r="AI8" s="9"/>
+      <c r="AI8" s="15"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
     </row>
     <row r="9" spans="9:39">
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15">
         <v>1</v>
       </c>
       <c r="L9" s="8"/>
@@ -1597,10 +1618,10 @@
     </row>
     <row r="10" spans="9:39">
       <c r="I10" s="6"/>
-      <c r="J10" s="9">
+      <c r="J10" s="15">
         <v>2</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1628,8 +1649,8 @@
     </row>
     <row r="11" spans="9:39">
       <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <v>3</v>
       </c>
       <c r="L11" s="8"/>
@@ -1659,10 +1680,10 @@
     </row>
     <row r="12" spans="9:39">
       <c r="I12" s="6"/>
-      <c r="J12" s="9">
+      <c r="J12" s="15">
         <v>4</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -1690,8 +1711,8 @@
     </row>
     <row r="13" spans="9:39">
       <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
         <v>5</v>
       </c>
       <c r="L13" s="8"/>
@@ -1721,10 +1742,10 @@
     </row>
     <row r="14" spans="9:39">
       <c r="I14" s="6"/>
-      <c r="J14" s="9">
+      <c r="J14" s="15">
         <v>6</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -1752,8 +1773,8 @@
     </row>
     <row r="15" spans="9:39">
       <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
         <v>7</v>
       </c>
       <c r="L15" s="8"/>
@@ -1783,10 +1804,10 @@
     </row>
     <row r="16" spans="9:39">
       <c r="I16" s="6"/>
-      <c r="J16" s="9">
+      <c r="J16" s="15">
         <v>8</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -1814,8 +1835,8 @@
     </row>
     <row r="17" spans="9:35">
       <c r="I17" s="6"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15">
         <v>9</v>
       </c>
       <c r="L17" s="8"/>
@@ -1845,10 +1866,10 @@
     </row>
     <row r="18" spans="9:35">
       <c r="I18" s="6"/>
-      <c r="J18" s="9">
+      <c r="J18" s="15">
         <v>10</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -1876,8 +1897,8 @@
     </row>
     <row r="19" spans="9:35">
       <c r="I19" s="6"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
         <v>11</v>
       </c>
       <c r="L19" s="8"/>
@@ -1907,10 +1928,10 @@
     </row>
     <row r="20" spans="9:35">
       <c r="I20" s="6"/>
-      <c r="J20" s="9">
+      <c r="J20" s="15">
         <v>12</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -1938,8 +1959,8 @@
     </row>
     <row r="21" spans="9:35">
       <c r="I21" s="6"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
         <v>13</v>
       </c>
       <c r="L21" s="8"/>
@@ -1969,10 +1990,10 @@
     </row>
     <row r="22" spans="9:35">
       <c r="I22" s="6"/>
-      <c r="J22" s="9">
+      <c r="J22" s="15">
         <v>14</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -2000,8 +2021,8 @@
     </row>
     <row r="23" spans="9:35">
       <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15">
         <v>15</v>
       </c>
       <c r="L23" s="8"/>
@@ -2031,10 +2052,10 @@
     </row>
     <row r="24" spans="9:35">
       <c r="I24" s="6"/>
-      <c r="J24" s="9">
+      <c r="J24" s="15">
         <v>16</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -2062,8 +2083,8 @@
     </row>
     <row r="25" spans="9:35">
       <c r="I25" s="6"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="J25" s="15"/>
+      <c r="K25" s="15">
         <v>17</v>
       </c>
       <c r="L25" s="8"/>
@@ -2093,10 +2114,10 @@
     </row>
     <row r="26" spans="9:35">
       <c r="I26" s="6"/>
-      <c r="J26" s="9">
+      <c r="J26" s="15">
         <v>18</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -2124,8 +2145,8 @@
     </row>
     <row r="27" spans="9:35">
       <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15">
         <v>19</v>
       </c>
       <c r="L27" s="8"/>
@@ -2155,10 +2176,10 @@
     </row>
     <row r="28" spans="9:35">
       <c r="I28" s="6"/>
-      <c r="J28" s="9">
+      <c r="J28" s="15">
         <v>20</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -2186,8 +2207,8 @@
     </row>
     <row r="29" spans="9:35">
       <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
         <v>21</v>
       </c>
       <c r="L29" s="8"/>
@@ -2217,10 +2238,10 @@
     </row>
     <row r="30" spans="9:35">
       <c r="I30" s="6"/>
-      <c r="J30" s="9">
+      <c r="J30" s="15">
         <v>22</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -2248,8 +2269,8 @@
     </row>
     <row r="31" spans="9:35">
       <c r="I31" s="6"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
         <v>23</v>
       </c>
       <c r="L31" s="8"/>
@@ -2279,10 +2300,10 @@
     </row>
     <row r="32" spans="9:35">
       <c r="I32" s="6"/>
-      <c r="J32" s="9">
+      <c r="J32" s="15">
         <v>24</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -2310,8 +2331,8 @@
     </row>
     <row r="33" spans="9:35">
       <c r="I33" s="6"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
         <v>25</v>
       </c>
       <c r="L33" s="8"/>
@@ -2341,10 +2362,10 @@
     </row>
     <row r="34" spans="9:35">
       <c r="I34" s="6"/>
-      <c r="J34" s="9">
+      <c r="J34" s="15">
         <v>26</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -2372,8 +2393,8 @@
     </row>
     <row r="35" spans="9:35">
       <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9">
+      <c r="J35" s="15"/>
+      <c r="K35" s="15">
         <v>27</v>
       </c>
       <c r="L35" s="8"/>
@@ -2403,10 +2424,10 @@
     </row>
     <row r="36" spans="9:35">
       <c r="I36" s="6"/>
-      <c r="J36" s="9">
+      <c r="J36" s="15">
         <v>28</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -2434,8 +2455,8 @@
     </row>
     <row r="37" spans="9:35">
       <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9">
+      <c r="J37" s="15"/>
+      <c r="K37" s="15">
         <v>29</v>
       </c>
       <c r="L37" s="8"/>
@@ -2465,10 +2486,10 @@
     </row>
     <row r="38" spans="9:35">
       <c r="I38" s="6"/>
-      <c r="J38" s="9">
+      <c r="J38" s="15">
         <v>30</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -2496,8 +2517,8 @@
     </row>
     <row r="39" spans="9:35">
       <c r="I39" s="6"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9">
+      <c r="J39" s="15"/>
+      <c r="K39" s="15">
         <v>31</v>
       </c>
       <c r="L39" s="8"/>
@@ -2528,7 +2549,7 @@
     <row r="40" spans="9:35">
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="9"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -2557,10 +2578,10 @@
     <row r="42" spans="9:35">
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="9"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -2588,117 +2609,117 @@
     <row r="43" spans="9:35">
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="9">
+      <c r="K43" s="15">
         <v>0</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9">
+      <c r="L43" s="15"/>
+      <c r="M43" s="15">
         <v>2</v>
       </c>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9">
+      <c r="N43" s="15"/>
+      <c r="O43" s="15">
         <v>4</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9">
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15">
         <v>6</v>
       </c>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9">
+      <c r="R43" s="15"/>
+      <c r="S43" s="15">
         <v>8</v>
       </c>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9">
+      <c r="T43" s="15"/>
+      <c r="U43" s="15">
         <v>10</v>
       </c>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9">
+      <c r="V43" s="15"/>
+      <c r="W43" s="15">
         <v>12</v>
       </c>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9">
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15">
         <v>14</v>
       </c>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9">
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15">
         <v>16</v>
       </c>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9">
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15">
         <v>18</v>
       </c>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9">
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15">
         <v>20</v>
       </c>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9">
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15">
         <v>22</v>
       </c>
-      <c r="AH43" s="9"/>
+      <c r="AH43" s="15"/>
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="9:35">
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="15">
         <v>0</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="9">
+      <c r="L44" s="15">
         <v>1</v>
       </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9">
+      <c r="M44" s="15"/>
+      <c r="N44" s="15">
         <v>3</v>
       </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9">
+      <c r="O44" s="15"/>
+      <c r="P44" s="15">
         <v>5</v>
       </c>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9">
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15">
         <v>7</v>
       </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9">
+      <c r="S44" s="15"/>
+      <c r="T44" s="15">
         <v>9</v>
       </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9">
+      <c r="U44" s="15"/>
+      <c r="V44" s="15">
         <v>11</v>
       </c>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9">
+      <c r="W44" s="15"/>
+      <c r="X44" s="15">
         <v>13</v>
       </c>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9">
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15">
         <v>15</v>
       </c>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9">
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15">
         <v>17</v>
       </c>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9">
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15">
         <v>19</v>
       </c>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9">
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15">
         <v>21</v>
       </c>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9">
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15">
         <v>23</v>
       </c>
-      <c r="AI44" s="9"/>
+      <c r="AI44" s="15"/>
     </row>
     <row r="45" spans="9:35">
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9">
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15">
         <v>1</v>
       </c>
       <c r="L45" s="8"/>
@@ -2728,10 +2749,10 @@
     </row>
     <row r="46" spans="9:35">
       <c r="I46" s="6"/>
-      <c r="J46" s="9">
+      <c r="J46" s="15">
         <v>2</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -2759,8 +2780,8 @@
     </row>
     <row r="47" spans="9:35">
       <c r="I47" s="6"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9">
+      <c r="J47" s="15"/>
+      <c r="K47" s="15">
         <v>3</v>
       </c>
       <c r="L47" s="8"/>
@@ -2790,10 +2811,10 @@
     </row>
     <row r="48" spans="9:35">
       <c r="I48" s="6"/>
-      <c r="J48" s="9">
+      <c r="J48" s="15">
         <v>4</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -2821,8 +2842,8 @@
     </row>
     <row r="49" spans="9:35">
       <c r="I49" s="6"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9">
+      <c r="J49" s="15"/>
+      <c r="K49" s="15">
         <v>5</v>
       </c>
       <c r="L49" s="8"/>
@@ -2852,10 +2873,10 @@
     </row>
     <row r="50" spans="9:35">
       <c r="I50" s="6"/>
-      <c r="J50" s="9">
+      <c r="J50" s="15">
         <v>6</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -2883,8 +2904,8 @@
     </row>
     <row r="51" spans="9:35">
       <c r="I51" s="6"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9">
+      <c r="J51" s="15"/>
+      <c r="K51" s="15">
         <v>7</v>
       </c>
       <c r="L51" s="8"/>
@@ -2914,10 +2935,10 @@
     </row>
     <row r="52" spans="9:35">
       <c r="I52" s="6"/>
-      <c r="J52" s="9">
+      <c r="J52" s="15">
         <v>8</v>
       </c>
-      <c r="K52" s="9"/>
+      <c r="K52" s="15"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -2945,8 +2966,8 @@
     </row>
     <row r="53" spans="9:35">
       <c r="I53" s="6"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9">
+      <c r="J53" s="15"/>
+      <c r="K53" s="15">
         <v>9</v>
       </c>
       <c r="L53" s="8"/>
@@ -2976,10 +2997,10 @@
     </row>
     <row r="54" spans="9:35">
       <c r="I54" s="6"/>
-      <c r="J54" s="9">
+      <c r="J54" s="15">
         <v>10</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="15"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -3007,8 +3028,8 @@
     </row>
     <row r="55" spans="9:35">
       <c r="I55" s="6"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9">
+      <c r="J55" s="15"/>
+      <c r="K55" s="15">
         <v>11</v>
       </c>
       <c r="L55" s="8"/>
@@ -3038,10 +3059,10 @@
     </row>
     <row r="56" spans="9:35">
       <c r="I56" s="6"/>
-      <c r="J56" s="9">
+      <c r="J56" s="15">
         <v>12</v>
       </c>
-      <c r="K56" s="9"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
@@ -3069,8 +3090,8 @@
     </row>
     <row r="57" spans="9:35">
       <c r="I57" s="6"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9">
+      <c r="J57" s="15"/>
+      <c r="K57" s="15">
         <v>13</v>
       </c>
       <c r="L57" s="8"/>
@@ -3100,10 +3121,10 @@
     </row>
     <row r="58" spans="9:35">
       <c r="I58" s="6"/>
-      <c r="J58" s="9">
+      <c r="J58" s="15">
         <v>14</v>
       </c>
-      <c r="K58" s="9"/>
+      <c r="K58" s="15"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -3131,8 +3152,8 @@
     </row>
     <row r="59" spans="9:35">
       <c r="I59" s="6"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9">
+      <c r="J59" s="15"/>
+      <c r="K59" s="15">
         <v>15</v>
       </c>
       <c r="L59" s="8"/>
@@ -3162,10 +3183,10 @@
     </row>
     <row r="60" spans="9:35">
       <c r="I60" s="6"/>
-      <c r="J60" s="9">
+      <c r="J60" s="15">
         <v>16</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="15"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -3193,8 +3214,8 @@
     </row>
     <row r="61" spans="9:35">
       <c r="I61" s="6"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9">
+      <c r="J61" s="15"/>
+      <c r="K61" s="15">
         <v>17</v>
       </c>
       <c r="L61" s="8"/>
@@ -3224,10 +3245,10 @@
     </row>
     <row r="62" spans="9:35">
       <c r="I62" s="6"/>
-      <c r="J62" s="9">
+      <c r="J62" s="15">
         <v>18</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="15"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -3255,8 +3276,8 @@
     </row>
     <row r="63" spans="9:35">
       <c r="I63" s="6"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9">
+      <c r="J63" s="15"/>
+      <c r="K63" s="15">
         <v>19</v>
       </c>
       <c r="L63" s="8"/>
@@ -3286,10 +3307,10 @@
     </row>
     <row r="64" spans="9:35">
       <c r="I64" s="6"/>
-      <c r="J64" s="9">
+      <c r="J64" s="15">
         <v>20</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="15"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -3317,8 +3338,8 @@
     </row>
     <row r="65" spans="9:35">
       <c r="I65" s="6"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9">
+      <c r="J65" s="15"/>
+      <c r="K65" s="15">
         <v>21</v>
       </c>
       <c r="L65" s="8"/>
@@ -3348,10 +3369,10 @@
     </row>
     <row r="66" spans="9:35">
       <c r="I66" s="6"/>
-      <c r="J66" s="9">
+      <c r="J66" s="15">
         <v>22</v>
       </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="15"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
@@ -3379,8 +3400,8 @@
     </row>
     <row r="67" spans="9:35">
       <c r="I67" s="6"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9">
+      <c r="J67" s="15"/>
+      <c r="K67" s="15">
         <v>23</v>
       </c>
       <c r="L67" s="8"/>
@@ -3410,10 +3431,10 @@
     </row>
     <row r="68" spans="9:35">
       <c r="I68" s="6"/>
-      <c r="J68" s="9">
+      <c r="J68" s="15">
         <v>24</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="K68" s="15"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
@@ -3441,8 +3462,8 @@
     </row>
     <row r="69" spans="9:35">
       <c r="I69" s="6"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9">
+      <c r="J69" s="15"/>
+      <c r="K69" s="15">
         <v>25</v>
       </c>
       <c r="L69" s="8"/>
@@ -3472,10 +3493,10 @@
     </row>
     <row r="70" spans="9:35">
       <c r="I70" s="6"/>
-      <c r="J70" s="9">
+      <c r="J70" s="15">
         <v>26</v>
       </c>
-      <c r="K70" s="9"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -3503,8 +3524,8 @@
     </row>
     <row r="71" spans="9:35">
       <c r="I71" s="6"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9">
+      <c r="J71" s="15"/>
+      <c r="K71" s="15">
         <v>27</v>
       </c>
       <c r="L71" s="8"/>
@@ -3534,10 +3555,10 @@
     </row>
     <row r="72" spans="9:35">
       <c r="I72" s="6"/>
-      <c r="J72" s="9">
+      <c r="J72" s="15">
         <v>28</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="15"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -3565,8 +3586,8 @@
     </row>
     <row r="73" spans="9:35">
       <c r="I73" s="6"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9">
+      <c r="J73" s="15"/>
+      <c r="K73" s="15">
         <v>29</v>
       </c>
       <c r="L73" s="8"/>
@@ -3596,10 +3617,10 @@
     </row>
     <row r="74" spans="9:35">
       <c r="I74" s="6"/>
-      <c r="J74" s="9">
+      <c r="J74" s="15">
         <v>30</v>
       </c>
-      <c r="K74" s="9"/>
+      <c r="K74" s="15"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -3627,8 +3648,8 @@
     </row>
     <row r="75" spans="9:35">
       <c r="I75" s="6"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9">
+      <c r="J75" s="15"/>
+      <c r="K75" s="15">
         <v>31</v>
       </c>
       <c r="L75" s="8"/>
@@ -3659,7 +3680,7 @@
     <row r="76" spans="9:35">
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="9"/>
+      <c r="K76" s="15"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -3688,10 +3709,10 @@
     <row r="152" spans="4:30">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="9" t="s">
+      <c r="F152" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G152" s="9"/>
+      <c r="G152" s="15"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -3719,117 +3740,117 @@
     <row r="153" spans="4:30">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="9">
+      <c r="F153" s="15">
         <v>0</v>
       </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9">
+      <c r="G153" s="15"/>
+      <c r="H153" s="15">
         <v>2</v>
       </c>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9">
+      <c r="I153" s="15"/>
+      <c r="J153" s="15">
         <v>4</v>
       </c>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9">
+      <c r="K153" s="15"/>
+      <c r="L153" s="15">
         <v>6</v>
       </c>
-      <c r="M153" s="9"/>
-      <c r="N153" s="9">
+      <c r="M153" s="15"/>
+      <c r="N153" s="15">
         <v>8</v>
       </c>
-      <c r="O153" s="9"/>
-      <c r="P153" s="9">
+      <c r="O153" s="15"/>
+      <c r="P153" s="15">
         <v>10</v>
       </c>
-      <c r="Q153" s="9"/>
-      <c r="R153" s="9">
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15">
         <v>12</v>
       </c>
-      <c r="S153" s="9"/>
-      <c r="T153" s="9">
+      <c r="S153" s="15"/>
+      <c r="T153" s="15">
         <v>14</v>
       </c>
-      <c r="U153" s="9"/>
-      <c r="V153" s="9">
+      <c r="U153" s="15"/>
+      <c r="V153" s="15">
         <v>16</v>
       </c>
-      <c r="W153" s="9"/>
-      <c r="X153" s="9">
+      <c r="W153" s="15"/>
+      <c r="X153" s="15">
         <v>18</v>
       </c>
-      <c r="Y153" s="9"/>
-      <c r="Z153" s="9">
+      <c r="Y153" s="15"/>
+      <c r="Z153" s="15">
         <v>20</v>
       </c>
-      <c r="AA153" s="9"/>
-      <c r="AB153" s="9">
+      <c r="AA153" s="15"/>
+      <c r="AB153" s="15">
         <v>22</v>
       </c>
-      <c r="AC153" s="9"/>
+      <c r="AC153" s="15"/>
       <c r="AD153" s="7"/>
     </row>
     <row r="154" spans="4:30">
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E154" s="15">
         <v>0</v>
       </c>
       <c r="F154" s="7"/>
-      <c r="G154" s="9">
+      <c r="G154" s="15">
         <v>1</v>
       </c>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9">
+      <c r="H154" s="15"/>
+      <c r="I154" s="15">
         <v>3</v>
       </c>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9">
+      <c r="J154" s="15"/>
+      <c r="K154" s="15">
         <v>5</v>
       </c>
-      <c r="L154" s="9"/>
-      <c r="M154" s="9">
+      <c r="L154" s="15"/>
+      <c r="M154" s="15">
         <v>7</v>
       </c>
-      <c r="N154" s="9"/>
-      <c r="O154" s="9">
+      <c r="N154" s="15"/>
+      <c r="O154" s="15">
         <v>9</v>
       </c>
-      <c r="P154" s="9"/>
-      <c r="Q154" s="9">
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15">
         <v>11</v>
       </c>
-      <c r="R154" s="9"/>
-      <c r="S154" s="9">
+      <c r="R154" s="15"/>
+      <c r="S154" s="15">
         <v>13</v>
       </c>
-      <c r="T154" s="9"/>
-      <c r="U154" s="9">
+      <c r="T154" s="15"/>
+      <c r="U154" s="15">
         <v>15</v>
       </c>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9">
+      <c r="V154" s="15"/>
+      <c r="W154" s="15">
         <v>17</v>
       </c>
-      <c r="X154" s="9"/>
-      <c r="Y154" s="9">
+      <c r="X154" s="15"/>
+      <c r="Y154" s="15">
         <v>19</v>
       </c>
-      <c r="Z154" s="9"/>
-      <c r="AA154" s="9">
+      <c r="Z154" s="15"/>
+      <c r="AA154" s="15">
         <v>21</v>
       </c>
-      <c r="AB154" s="9"/>
-      <c r="AC154" s="9">
+      <c r="AB154" s="15"/>
+      <c r="AC154" s="15">
         <v>23</v>
       </c>
-      <c r="AD154" s="9"/>
+      <c r="AD154" s="15"/>
     </row>
     <row r="155" spans="4:30">
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9">
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15">
         <v>1</v>
       </c>
       <c r="G155" s="5"/>
@@ -3859,10 +3880,10 @@
     </row>
     <row r="156" spans="4:30">
       <c r="D156" s="6"/>
-      <c r="E156" s="9">
+      <c r="E156" s="15">
         <v>2</v>
       </c>
-      <c r="F156" s="9"/>
+      <c r="F156" s="15"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -3890,8 +3911,8 @@
     </row>
     <row r="157" spans="4:30">
       <c r="D157" s="6"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9">
+      <c r="E157" s="15"/>
+      <c r="F157" s="15">
         <v>3</v>
       </c>
       <c r="G157" s="5"/>
@@ -3921,10 +3942,10 @@
     </row>
     <row r="158" spans="4:30">
       <c r="D158" s="6"/>
-      <c r="E158" s="9">
+      <c r="E158" s="15">
         <v>4</v>
       </c>
-      <c r="F158" s="9"/>
+      <c r="F158" s="15"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -3952,8 +3973,8 @@
     </row>
     <row r="159" spans="4:30">
       <c r="D159" s="6"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9">
+      <c r="E159" s="15"/>
+      <c r="F159" s="15">
         <v>5</v>
       </c>
       <c r="G159" s="5"/>
@@ -3983,10 +4004,10 @@
     </row>
     <row r="160" spans="4:30">
       <c r="D160" s="6"/>
-      <c r="E160" s="9">
+      <c r="E160" s="15">
         <v>6</v>
       </c>
-      <c r="F160" s="9"/>
+      <c r="F160" s="15"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -4014,8 +4035,8 @@
     </row>
     <row r="161" spans="4:30">
       <c r="D161" s="6"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9">
+      <c r="E161" s="15"/>
+      <c r="F161" s="15">
         <v>7</v>
       </c>
       <c r="G161" s="5"/>
@@ -4045,10 +4066,10 @@
     </row>
     <row r="162" spans="4:30">
       <c r="D162" s="6"/>
-      <c r="E162" s="9">
+      <c r="E162" s="15">
         <v>8</v>
       </c>
-      <c r="F162" s="9"/>
+      <c r="F162" s="15"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -4076,8 +4097,8 @@
     </row>
     <row r="163" spans="4:30">
       <c r="D163" s="6"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9">
+      <c r="E163" s="15"/>
+      <c r="F163" s="15">
         <v>9</v>
       </c>
       <c r="G163" s="5"/>
@@ -4107,10 +4128,10 @@
     </row>
     <row r="164" spans="4:30">
       <c r="D164" s="6"/>
-      <c r="E164" s="9">
+      <c r="E164" s="15">
         <v>10</v>
       </c>
-      <c r="F164" s="9"/>
+      <c r="F164" s="15"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -4138,8 +4159,8 @@
     </row>
     <row r="165" spans="4:30">
       <c r="D165" s="6"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9">
+      <c r="E165" s="15"/>
+      <c r="F165" s="15">
         <v>11</v>
       </c>
       <c r="G165" s="5"/>
@@ -4169,10 +4190,10 @@
     </row>
     <row r="166" spans="4:30">
       <c r="D166" s="6"/>
-      <c r="E166" s="9">
+      <c r="E166" s="15">
         <v>12</v>
       </c>
-      <c r="F166" s="9"/>
+      <c r="F166" s="15"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -4200,8 +4221,8 @@
     </row>
     <row r="167" spans="4:30">
       <c r="D167" s="6"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9">
+      <c r="E167" s="15"/>
+      <c r="F167" s="15">
         <v>13</v>
       </c>
       <c r="G167" s="5"/>
@@ -4231,10 +4252,10 @@
     </row>
     <row r="168" spans="4:30">
       <c r="D168" s="6"/>
-      <c r="E168" s="9">
+      <c r="E168" s="15">
         <v>14</v>
       </c>
-      <c r="F168" s="9"/>
+      <c r="F168" s="15"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
@@ -4262,8 +4283,8 @@
     </row>
     <row r="169" spans="4:30">
       <c r="D169" s="6"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9">
+      <c r="E169" s="15"/>
+      <c r="F169" s="15">
         <v>15</v>
       </c>
       <c r="G169" s="5"/>
@@ -4293,10 +4314,10 @@
     </row>
     <row r="170" spans="4:30">
       <c r="D170" s="6"/>
-      <c r="E170" s="9">
+      <c r="E170" s="15">
         <v>16</v>
       </c>
-      <c r="F170" s="9"/>
+      <c r="F170" s="15"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
@@ -4324,8 +4345,8 @@
     </row>
     <row r="171" spans="4:30">
       <c r="D171" s="6"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9">
+      <c r="E171" s="15"/>
+      <c r="F171" s="15">
         <v>17</v>
       </c>
       <c r="G171" s="5"/>
@@ -4355,10 +4376,10 @@
     </row>
     <row r="172" spans="4:30">
       <c r="D172" s="6"/>
-      <c r="E172" s="9">
+      <c r="E172" s="15">
         <v>18</v>
       </c>
-      <c r="F172" s="9"/>
+      <c r="F172" s="15"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
@@ -4386,8 +4407,8 @@
     </row>
     <row r="173" spans="4:30">
       <c r="D173" s="6"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9">
+      <c r="E173" s="15"/>
+      <c r="F173" s="15">
         <v>19</v>
       </c>
       <c r="G173" s="5"/>
@@ -4417,10 +4438,10 @@
     </row>
     <row r="174" spans="4:30">
       <c r="D174" s="6"/>
-      <c r="E174" s="9">
+      <c r="E174" s="15">
         <v>20</v>
       </c>
-      <c r="F174" s="9"/>
+      <c r="F174" s="15"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
@@ -4448,8 +4469,8 @@
     </row>
     <row r="175" spans="4:30">
       <c r="D175" s="6"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9">
+      <c r="E175" s="15"/>
+      <c r="F175" s="15">
         <v>21</v>
       </c>
       <c r="G175" s="5"/>
@@ -4479,10 +4500,10 @@
     </row>
     <row r="176" spans="4:30">
       <c r="D176" s="6"/>
-      <c r="E176" s="9">
+      <c r="E176" s="15">
         <v>22</v>
       </c>
-      <c r="F176" s="9"/>
+      <c r="F176" s="15"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
@@ -4510,8 +4531,8 @@
     </row>
     <row r="177" spans="4:30">
       <c r="D177" s="6"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9">
+      <c r="E177" s="15"/>
+      <c r="F177" s="15">
         <v>23</v>
       </c>
       <c r="G177" s="5"/>
@@ -4541,10 +4562,10 @@
     </row>
     <row r="178" spans="4:30">
       <c r="D178" s="6"/>
-      <c r="E178" s="9">
+      <c r="E178" s="15">
         <v>24</v>
       </c>
-      <c r="F178" s="9"/>
+      <c r="F178" s="15"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
@@ -4572,8 +4593,8 @@
     </row>
     <row r="179" spans="4:30">
       <c r="D179" s="6"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9">
+      <c r="E179" s="15"/>
+      <c r="F179" s="15">
         <v>25</v>
       </c>
       <c r="G179" s="5"/>
@@ -4603,10 +4624,10 @@
     </row>
     <row r="180" spans="4:30">
       <c r="D180" s="6"/>
-      <c r="E180" s="9">
+      <c r="E180" s="15">
         <v>26</v>
       </c>
-      <c r="F180" s="9"/>
+      <c r="F180" s="15"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
@@ -4634,8 +4655,8 @@
     </row>
     <row r="181" spans="4:30">
       <c r="D181" s="6"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="9">
+      <c r="E181" s="15"/>
+      <c r="F181" s="15">
         <v>27</v>
       </c>
       <c r="G181" s="5"/>
@@ -4665,10 +4686,10 @@
     </row>
     <row r="182" spans="4:30">
       <c r="D182" s="6"/>
-      <c r="E182" s="9">
+      <c r="E182" s="15">
         <v>28</v>
       </c>
-      <c r="F182" s="9"/>
+      <c r="F182" s="15"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -4696,8 +4717,8 @@
     </row>
     <row r="183" spans="4:30">
       <c r="D183" s="6"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9">
+      <c r="E183" s="15"/>
+      <c r="F183" s="15">
         <v>29</v>
       </c>
       <c r="G183" s="5"/>
@@ -4727,10 +4748,10 @@
     </row>
     <row r="184" spans="4:30">
       <c r="D184" s="6"/>
-      <c r="E184" s="9">
+      <c r="E184" s="15">
         <v>30</v>
       </c>
-      <c r="F184" s="9"/>
+      <c r="F184" s="15"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
@@ -4758,8 +4779,8 @@
     </row>
     <row r="185" spans="4:30">
       <c r="D185" s="6"/>
-      <c r="E185" s="9"/>
-      <c r="F185" s="9">
+      <c r="E185" s="15"/>
+      <c r="F185" s="15">
         <v>31</v>
       </c>
       <c r="G185" s="5"/>
@@ -4790,7 +4811,7 @@
     <row r="186" spans="4:30">
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
-      <c r="F186" s="9"/>
+      <c r="F186" s="15"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
@@ -4819,10 +4840,10 @@
     <row r="188" spans="4:30">
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
-      <c r="F188" s="9" t="s">
+      <c r="F188" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G188" s="9"/>
+      <c r="G188" s="15"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
@@ -4850,117 +4871,117 @@
     <row r="189" spans="4:30">
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
-      <c r="F189" s="9">
+      <c r="F189" s="15">
         <v>0</v>
       </c>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9">
+      <c r="G189" s="15"/>
+      <c r="H189" s="15">
         <v>2</v>
       </c>
-      <c r="I189" s="9"/>
-      <c r="J189" s="9">
+      <c r="I189" s="15"/>
+      <c r="J189" s="15">
         <v>4</v>
       </c>
-      <c r="K189" s="9"/>
-      <c r="L189" s="9">
+      <c r="K189" s="15"/>
+      <c r="L189" s="15">
         <v>6</v>
       </c>
-      <c r="M189" s="9"/>
-      <c r="N189" s="9">
+      <c r="M189" s="15"/>
+      <c r="N189" s="15">
         <v>8</v>
       </c>
-      <c r="O189" s="9"/>
-      <c r="P189" s="9">
+      <c r="O189" s="15"/>
+      <c r="P189" s="15">
         <v>10</v>
       </c>
-      <c r="Q189" s="9"/>
-      <c r="R189" s="9">
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15">
         <v>12</v>
       </c>
-      <c r="S189" s="9"/>
-      <c r="T189" s="9">
+      <c r="S189" s="15"/>
+      <c r="T189" s="15">
         <v>14</v>
       </c>
-      <c r="U189" s="9"/>
-      <c r="V189" s="9">
+      <c r="U189" s="15"/>
+      <c r="V189" s="15">
         <v>16</v>
       </c>
-      <c r="W189" s="9"/>
-      <c r="X189" s="9">
+      <c r="W189" s="15"/>
+      <c r="X189" s="15">
         <v>18</v>
       </c>
-      <c r="Y189" s="9"/>
-      <c r="Z189" s="9">
+      <c r="Y189" s="15"/>
+      <c r="Z189" s="15">
         <v>20</v>
       </c>
-      <c r="AA189" s="9"/>
-      <c r="AB189" s="9">
+      <c r="AA189" s="15"/>
+      <c r="AB189" s="15">
         <v>22</v>
       </c>
-      <c r="AC189" s="9"/>
+      <c r="AC189" s="15"/>
       <c r="AD189" s="7"/>
     </row>
     <row r="190" spans="4:30">
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E190" s="9">
+      <c r="E190" s="15">
         <v>0</v>
       </c>
       <c r="F190" s="7"/>
-      <c r="G190" s="9">
+      <c r="G190" s="15">
         <v>1</v>
       </c>
-      <c r="H190" s="9"/>
-      <c r="I190" s="9">
+      <c r="H190" s="15"/>
+      <c r="I190" s="15">
         <v>3</v>
       </c>
-      <c r="J190" s="9"/>
-      <c r="K190" s="9">
+      <c r="J190" s="15"/>
+      <c r="K190" s="15">
         <v>5</v>
       </c>
-      <c r="L190" s="9"/>
-      <c r="M190" s="9">
+      <c r="L190" s="15"/>
+      <c r="M190" s="15">
         <v>7</v>
       </c>
-      <c r="N190" s="9"/>
-      <c r="O190" s="9">
+      <c r="N190" s="15"/>
+      <c r="O190" s="15">
         <v>9</v>
       </c>
-      <c r="P190" s="9"/>
-      <c r="Q190" s="9">
+      <c r="P190" s="15"/>
+      <c r="Q190" s="15">
         <v>11</v>
       </c>
-      <c r="R190" s="9"/>
-      <c r="S190" s="9">
+      <c r="R190" s="15"/>
+      <c r="S190" s="15">
         <v>13</v>
       </c>
-      <c r="T190" s="9"/>
-      <c r="U190" s="9">
+      <c r="T190" s="15"/>
+      <c r="U190" s="15">
         <v>15</v>
       </c>
-      <c r="V190" s="9"/>
-      <c r="W190" s="9">
+      <c r="V190" s="15"/>
+      <c r="W190" s="15">
         <v>17</v>
       </c>
-      <c r="X190" s="9"/>
-      <c r="Y190" s="9">
+      <c r="X190" s="15"/>
+      <c r="Y190" s="15">
         <v>19</v>
       </c>
-      <c r="Z190" s="9"/>
-      <c r="AA190" s="9">
+      <c r="Z190" s="15"/>
+      <c r="AA190" s="15">
         <v>21</v>
       </c>
-      <c r="AB190" s="9"/>
-      <c r="AC190" s="9">
+      <c r="AB190" s="15"/>
+      <c r="AC190" s="15">
         <v>23</v>
       </c>
-      <c r="AD190" s="9"/>
+      <c r="AD190" s="15"/>
     </row>
     <row r="191" spans="4:30">
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9">
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15">
         <v>1</v>
       </c>
       <c r="G191" s="5"/>
@@ -4990,10 +5011,10 @@
     </row>
     <row r="192" spans="4:30">
       <c r="D192" s="6"/>
-      <c r="E192" s="9">
+      <c r="E192" s="15">
         <v>2</v>
       </c>
-      <c r="F192" s="9"/>
+      <c r="F192" s="15"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
@@ -5021,8 +5042,8 @@
     </row>
     <row r="193" spans="4:30">
       <c r="D193" s="6"/>
-      <c r="E193" s="9"/>
-      <c r="F193" s="9">
+      <c r="E193" s="15"/>
+      <c r="F193" s="15">
         <v>3</v>
       </c>
       <c r="G193" s="5"/>
@@ -5052,10 +5073,10 @@
     </row>
     <row r="194" spans="4:30">
       <c r="D194" s="6"/>
-      <c r="E194" s="9">
+      <c r="E194" s="15">
         <v>4</v>
       </c>
-      <c r="F194" s="9"/>
+      <c r="F194" s="15"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
@@ -5083,8 +5104,8 @@
     </row>
     <row r="195" spans="4:30">
       <c r="D195" s="6"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9">
+      <c r="E195" s="15"/>
+      <c r="F195" s="15">
         <v>5</v>
       </c>
       <c r="G195" s="5"/>
@@ -5114,10 +5135,10 @@
     </row>
     <row r="196" spans="4:30">
       <c r="D196" s="6"/>
-      <c r="E196" s="9">
+      <c r="E196" s="15">
         <v>6</v>
       </c>
-      <c r="F196" s="9"/>
+      <c r="F196" s="15"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
@@ -5145,8 +5166,8 @@
     </row>
     <row r="197" spans="4:30">
       <c r="D197" s="6"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9">
+      <c r="E197" s="15"/>
+      <c r="F197" s="15">
         <v>7</v>
       </c>
       <c r="G197" s="5"/>
@@ -5176,10 +5197,10 @@
     </row>
     <row r="198" spans="4:30">
       <c r="D198" s="6"/>
-      <c r="E198" s="9">
+      <c r="E198" s="15">
         <v>8</v>
       </c>
-      <c r="F198" s="9"/>
+      <c r="F198" s="15"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
@@ -5207,8 +5228,8 @@
     </row>
     <row r="199" spans="4:30">
       <c r="D199" s="6"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9">
+      <c r="E199" s="15"/>
+      <c r="F199" s="15">
         <v>9</v>
       </c>
       <c r="G199" s="5"/>
@@ -5238,10 +5259,10 @@
     </row>
     <row r="200" spans="4:30">
       <c r="D200" s="6"/>
-      <c r="E200" s="9">
+      <c r="E200" s="15">
         <v>10</v>
       </c>
-      <c r="F200" s="9"/>
+      <c r="F200" s="15"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
@@ -5269,8 +5290,8 @@
     </row>
     <row r="201" spans="4:30">
       <c r="D201" s="6"/>
-      <c r="E201" s="9"/>
-      <c r="F201" s="9">
+      <c r="E201" s="15"/>
+      <c r="F201" s="15">
         <v>11</v>
       </c>
       <c r="G201" s="5"/>
@@ -5300,10 +5321,10 @@
     </row>
     <row r="202" spans="4:30">
       <c r="D202" s="6"/>
-      <c r="E202" s="9">
+      <c r="E202" s="15">
         <v>12</v>
       </c>
-      <c r="F202" s="9"/>
+      <c r="F202" s="15"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
@@ -5331,8 +5352,8 @@
     </row>
     <row r="203" spans="4:30">
       <c r="D203" s="6"/>
-      <c r="E203" s="9"/>
-      <c r="F203" s="9">
+      <c r="E203" s="15"/>
+      <c r="F203" s="15">
         <v>13</v>
       </c>
       <c r="G203" s="5"/>
@@ -5362,10 +5383,10 @@
     </row>
     <row r="204" spans="4:30">
       <c r="D204" s="6"/>
-      <c r="E204" s="9">
+      <c r="E204" s="15">
         <v>14</v>
       </c>
-      <c r="F204" s="9"/>
+      <c r="F204" s="15"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
@@ -5393,8 +5414,8 @@
     </row>
     <row r="205" spans="4:30">
       <c r="D205" s="6"/>
-      <c r="E205" s="9"/>
-      <c r="F205" s="9">
+      <c r="E205" s="15"/>
+      <c r="F205" s="15">
         <v>15</v>
       </c>
       <c r="G205" s="5"/>
@@ -5424,10 +5445,10 @@
     </row>
     <row r="206" spans="4:30">
       <c r="D206" s="6"/>
-      <c r="E206" s="9">
+      <c r="E206" s="15">
         <v>16</v>
       </c>
-      <c r="F206" s="9"/>
+      <c r="F206" s="15"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
@@ -5455,8 +5476,8 @@
     </row>
     <row r="207" spans="4:30">
       <c r="D207" s="6"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9">
+      <c r="E207" s="15"/>
+      <c r="F207" s="15">
         <v>17</v>
       </c>
       <c r="G207" s="5"/>
@@ -5486,10 +5507,10 @@
     </row>
     <row r="208" spans="4:30">
       <c r="D208" s="6"/>
-      <c r="E208" s="9">
+      <c r="E208" s="15">
         <v>18</v>
       </c>
-      <c r="F208" s="9"/>
+      <c r="F208" s="15"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
@@ -5517,8 +5538,8 @@
     </row>
     <row r="209" spans="4:30">
       <c r="D209" s="6"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="9">
+      <c r="E209" s="15"/>
+      <c r="F209" s="15">
         <v>19</v>
       </c>
       <c r="G209" s="5"/>
@@ -5548,10 +5569,10 @@
     </row>
     <row r="210" spans="4:30">
       <c r="D210" s="6"/>
-      <c r="E210" s="9">
+      <c r="E210" s="15">
         <v>20</v>
       </c>
-      <c r="F210" s="9"/>
+      <c r="F210" s="15"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
@@ -5579,8 +5600,8 @@
     </row>
     <row r="211" spans="4:30">
       <c r="D211" s="6"/>
-      <c r="E211" s="9"/>
-      <c r="F211" s="9">
+      <c r="E211" s="15"/>
+      <c r="F211" s="15">
         <v>21</v>
       </c>
       <c r="G211" s="5"/>
@@ -5610,10 +5631,10 @@
     </row>
     <row r="212" spans="4:30">
       <c r="D212" s="6"/>
-      <c r="E212" s="9">
+      <c r="E212" s="15">
         <v>22</v>
       </c>
-      <c r="F212" s="9"/>
+      <c r="F212" s="15"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
@@ -5641,8 +5662,8 @@
     </row>
     <row r="213" spans="4:30">
       <c r="D213" s="6"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9">
+      <c r="E213" s="15"/>
+      <c r="F213" s="15">
         <v>23</v>
       </c>
       <c r="G213" s="5"/>
@@ -5672,10 +5693,10 @@
     </row>
     <row r="214" spans="4:30">
       <c r="D214" s="6"/>
-      <c r="E214" s="9">
+      <c r="E214" s="15">
         <v>24</v>
       </c>
-      <c r="F214" s="9"/>
+      <c r="F214" s="15"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
@@ -5703,8 +5724,8 @@
     </row>
     <row r="215" spans="4:30">
       <c r="D215" s="6"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9">
+      <c r="E215" s="15"/>
+      <c r="F215" s="15">
         <v>25</v>
       </c>
       <c r="G215" s="5"/>
@@ -5734,10 +5755,10 @@
     </row>
     <row r="216" spans="4:30">
       <c r="D216" s="6"/>
-      <c r="E216" s="9">
+      <c r="E216" s="15">
         <v>26</v>
       </c>
-      <c r="F216" s="9"/>
+      <c r="F216" s="15"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -5765,8 +5786,8 @@
     </row>
     <row r="217" spans="4:30">
       <c r="D217" s="6"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9">
+      <c r="E217" s="15"/>
+      <c r="F217" s="15">
         <v>27</v>
       </c>
       <c r="G217" s="5"/>
@@ -5796,10 +5817,10 @@
     </row>
     <row r="218" spans="4:30">
       <c r="D218" s="6"/>
-      <c r="E218" s="9">
+      <c r="E218" s="15">
         <v>28</v>
       </c>
-      <c r="F218" s="9"/>
+      <c r="F218" s="15"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
@@ -5827,8 +5848,8 @@
     </row>
     <row r="219" spans="4:30">
       <c r="D219" s="6"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9">
+      <c r="E219" s="15"/>
+      <c r="F219" s="15">
         <v>29</v>
       </c>
       <c r="G219" s="5"/>
@@ -5858,10 +5879,10 @@
     </row>
     <row r="220" spans="4:30">
       <c r="D220" s="6"/>
-      <c r="E220" s="9">
+      <c r="E220" s="15">
         <v>30</v>
       </c>
-      <c r="F220" s="9"/>
+      <c r="F220" s="15"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
@@ -5889,8 +5910,8 @@
     </row>
     <row r="221" spans="4:30">
       <c r="D221" s="6"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9">
+      <c r="E221" s="15"/>
+      <c r="F221" s="15">
         <v>31</v>
       </c>
       <c r="G221" s="5"/>
@@ -5921,7 +5942,7 @@
     <row r="222" spans="4:30">
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
-      <c r="F222" s="9"/>
+      <c r="F222" s="15"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
@@ -5949,33 +5970,188 @@
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="U190:V190"/>
+    <mergeCell ref="W190:X190"/>
+    <mergeCell ref="Y190:Z190"/>
+    <mergeCell ref="AA190:AB190"/>
+    <mergeCell ref="AC190:AD190"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="AB189:AC189"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:R190"/>
+    <mergeCell ref="S190:T190"/>
+    <mergeCell ref="P189:Q189"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="T189:U189"/>
+    <mergeCell ref="V189:W189"/>
+    <mergeCell ref="X189:Y189"/>
+    <mergeCell ref="Z189:AA189"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="L189:M189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="Y154:Z154"/>
+    <mergeCell ref="AA154:AB154"/>
+    <mergeCell ref="AC154:AD154"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="AB153:AC153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J20:J21"/>
@@ -6000,188 +6176,33 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="Y154:Z154"/>
-    <mergeCell ref="AA154:AB154"/>
-    <mergeCell ref="AC154:AD154"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="AB153:AC153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="U190:V190"/>
-    <mergeCell ref="W190:X190"/>
-    <mergeCell ref="Y190:Z190"/>
-    <mergeCell ref="AA190:AB190"/>
-    <mergeCell ref="AC190:AD190"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="AB189:AC189"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:R190"/>
-    <mergeCell ref="S190:T190"/>
-    <mergeCell ref="P189:Q189"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="T189:U189"/>
-    <mergeCell ref="V189:W189"/>
-    <mergeCell ref="X189:Y189"/>
-    <mergeCell ref="Z189:AA189"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6189,10 +6210,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I96"/>
+  <dimension ref="A3:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6206,11 +6227,11 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>148</v>
+      <c r="D3" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6220,11 +6241,11 @@
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>135</v>
+      <c r="D4" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6242,11 +6263,11 @@
       <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>138</v>
+      <c r="D6" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6256,11 +6277,11 @@
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>140</v>
+      <c r="D7" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6270,7 +6291,7 @@
       <c r="B8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -6279,24 +6300,24 @@
       <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="D11" s="15" t="s">
-        <v>88</v>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" s="15" t="s">
-        <v>137</v>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6304,7 +6325,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6316,86 +6337,86 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>115</v>
+      <c r="B20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>111</v>
+      <c r="B21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>115</v>
+      <c r="B22" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>111</v>
+      <c r="B23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="11"/>
-      <c r="H24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>114</v>
+      <c r="B24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>112</v>
+      <c r="B25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>110</v>
+      <c r="B26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -6403,54 +6424,54 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>105</v>
+      <c r="B29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="H31" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>123</v>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="H31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="H32" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>125</v>
+      <c r="H32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="H33" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>126</v>
+      <c r="H33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6468,10 +6489,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6492,24 +6513,24 @@
     </row>
     <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="B47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>150</v>
+      <c r="B47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -6519,27 +6540,27 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>128</v>
+      <c r="H48" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="H49" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>130</v>
+      <c r="H49" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="H50" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>132</v>
+      <c r="H50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6554,10 +6575,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -6578,24 +6599,24 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="B59" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>146</v>
+      <c r="B59" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -6607,30 +6628,30 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="H61" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>152</v>
+      <c r="H61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>153</v>
+      <c r="H62" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="H63" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>154</v>
+      <c r="H63" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6640,17 +6661,17 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6665,66 +6686,176 @@
     </row>
     <row r="79" spans="1:7">
       <c r="B79" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="84" spans="1:7" ht="15" customHeight="1">
+      <c r="B84" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="B88" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="B91" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="B88" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:7">
       <c r="B94" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="B95" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="B96" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B84:G86"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="N11:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="14:14">
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="14:14">
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="14:14">
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>